--- a/src/templates/IECMaterial_Template.xlsx
+++ b/src/templates/IECMaterial_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{890F4175-FB57-4794-A4AF-68148392A871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4C66E-493C-4EA6-98F6-94A821F5EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3285" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,6 +143,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -243,14 +244,14 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,14 +481,14 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
     <col min="4" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="34.85546875" style="1" customWidth="1"/>
@@ -501,45 +502,45 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -548,13 +549,13 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
@@ -592,37 +593,37 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="12">
         <v>45030</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1000</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>45031</v>
       </c>
     </row>
@@ -1108,6 +1109,7 @@
       <c r="K43" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="KcZxmMHKZRHGbwwkiI10FuesyMdxU5seMmhConxWVSid/kczdDYCQnHPLItAhElW6fGk8vWyouICNXRQeMRVEg==" saltValue="VWWMXjMpzZx4ZcX1h0FIDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="E2:K2"/>

--- a/src/templates/IECMaterial_Template.xlsx
+++ b/src/templates/IECMaterial_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devvi\Desktop\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4C66E-493C-4EA6-98F6-94A821F5EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6685D632-E8D1-4419-95A5-B0AEF66BEE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Region</t>
   </si>
@@ -96,10 +96,22 @@
     <t>Abaca Production</t>
   </si>
   <si>
-    <t>Region 1</t>
-  </si>
-  <si>
     <t>District 1</t>
+  </si>
+  <si>
+    <t>Name of Trainee</t>
+  </si>
+  <si>
+    <t>Matthew  Romero</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Regional Office 1</t>
   </si>
 </sst>
 </file>
@@ -219,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -249,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -478,86 +493,98 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.5703125" style="1"/>
+    <col min="3" max="4" width="31" style="1" customWidth="1"/>
+    <col min="5" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="34.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -567,32 +594,41 @@
       <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>45030</v>
       </c>
@@ -602,32 +638,41 @@
       <c r="C6" s="13">
         <v>1000</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="13">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="L6" s="12">
+        <v>45031</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="12">
+      <c r="N6" s="12">
         <v>45031</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -639,8 +684,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -652,8 +700,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -665,8 +716,11 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -678,8 +732,11 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -691,8 +748,11 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -704,8 +764,11 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -717,8 +780,11 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -730,8 +796,11 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -743,8 +812,11 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -756,8 +828,11 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -769,8 +844,11 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -780,10 +858,13 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="5"/>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -793,10 +874,13 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="5"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -808,8 +892,11 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -821,8 +908,11 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -834,8 +924,11 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -847,8 +940,11 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -860,8 +956,11 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -873,8 +972,11 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -886,8 +988,11 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -899,8 +1004,11 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -912,8 +1020,11 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -925,8 +1036,11 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -938,8 +1052,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -951,8 +1068,11 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -964,8 +1084,11 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -977,8 +1100,11 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -990,8 +1116,11 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1003,8 +1132,11 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1016,8 +1148,11 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1029,8 +1164,11 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1042,8 +1180,11 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1055,8 +1196,11 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1068,8 +1212,11 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1081,8 +1228,11 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1094,8 +1244,11 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1107,14 +1260,17 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KcZxmMHKZRHGbwwkiI10FuesyMdxU5seMmhConxWVSid/kczdDYCQnHPLItAhElW6fGk8vWyouICNXRQeMRVEg==" saltValue="VWWMXjMpzZx4ZcX1h0FIDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="EsZ46JjoQqZfCVXS2fH1Pe3+qKoIcSwMm7uNZ/rs4Ou0keKwmUb8MmT3wbA1eTlZ6lweS4Nu3trxxJ+EU8HM8g==" saltValue="suEgXtU0ThjSgdUEh1FR6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/templates/IECMaterial_Template.xlsx
+++ b/src/templates/IECMaterial_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasta\OneDrive\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6685D632-E8D1-4419-95A5-B0AEF66BEE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE349306-38C7-43F3-990E-6BB97BE0D1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Region</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Regional Office 1</t>
+  </si>
+  <si>
+    <t>Remarks</t>
   </si>
 </sst>
 </file>
@@ -493,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -508,11 +511,11 @@
     <col min="9" max="10" width="14.85546875" style="1" customWidth="1"/>
     <col min="11" max="12" width="34.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="1" customWidth="1"/>
-    <col min="14" max="14" width="20" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="12.5703125" style="1"/>
+    <col min="14" max="15" width="20" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="12.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -530,7 +533,7 @@
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -548,7 +551,7 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -566,7 +569,7 @@
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -584,7 +587,7 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:14" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -627,8 +630,11 @@
       <c r="N5" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>45030</v>
       </c>
@@ -671,8 +677,9 @@
       <c r="N6" s="12">
         <v>45031</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -687,8 +694,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -703,8 +711,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -719,8 +728,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -735,8 +745,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -751,8 +762,9 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -767,8 +779,9 @@
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -783,8 +796,9 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -799,8 +813,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -815,8 +830,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -831,8 +847,9 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -847,8 +864,9 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -863,8 +881,9 @@
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -879,8 +898,9 @@
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -895,8 +915,9 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -911,8 +932,9 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -927,8 +949,9 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -943,8 +966,9 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -959,8 +983,9 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -975,8 +1000,9 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -991,8 +1017,9 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1007,8 +1034,9 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1023,8 +1051,9 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1039,8 +1068,9 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1055,8 +1085,9 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1071,8 +1102,9 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1087,8 +1119,9 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1103,8 +1136,9 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1119,8 +1153,9 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1135,8 +1170,9 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1151,8 +1187,9 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1167,8 +1204,9 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1183,8 +1221,9 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1199,8 +1238,9 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1215,8 +1255,9 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1231,8 +1272,9 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1247,8 +1289,9 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1263,9 +1306,9 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="EsZ46JjoQqZfCVXS2fH1Pe3+qKoIcSwMm7uNZ/rs4Ou0keKwmUb8MmT3wbA1eTlZ6lweS4Nu3trxxJ+EU8HM8g==" saltValue="suEgXtU0ThjSgdUEh1FR6g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="F1:N1"/>
     <mergeCell ref="F2:N2"/>
